--- a/AfDD_2022_Annex_Table_Tab03.xlsx
+++ b/AfDD_2022_Annex_Table_Tab03.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="167">
   <si>
     <t>Table 3: Annual population growth rate 1990-2026</t>
   </si>
@@ -1370,11 +1367,9 @@
   <sheetData>
     <row r="1" spans="1:40" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1416,10 +1411,10 @@
     </row>
     <row r="2" spans="1:40" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="8">
         <v>1990</v>
@@ -1533,15 +1528,15 @@
         <v>2026</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="13">
         <v>3.4361276476274001</v>
@@ -1660,10 +1655,10 @@
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="16">
         <v>3.3967491747583902</v>
@@ -1782,10 +1777,10 @@
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="20">
         <v>2.9962504602391</v>
@@ -1904,10 +1899,10 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="20">
         <v>2.2317174737963801</v>
@@ -2026,10 +2021,10 @@
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="20">
         <v>3.6243571752203398</v>
@@ -2148,10 +2143,10 @@
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="20">
         <v>1.41607612086567</v>
@@ -2270,10 +2265,10 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>18</v>
       </c>
       <c r="C9" s="20">
         <v>3.3829457341969098</v>
@@ -2392,10 +2387,10 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="C10" s="20">
         <v>2.4226263382389299</v>
@@ -2514,10 +2509,10 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="C11" s="16">
         <v>2.77038985836551</v>
@@ -2636,10 +2631,10 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="C12" s="23">
         <v>2.74336281442746</v>
@@ -2758,10 +2753,10 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="C13" s="27">
         <v>2.6206581301158498</v>
@@ -2880,10 +2875,10 @@
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="C14" s="20">
         <v>2.4851759040630301</v>
@@ -3002,10 +2997,10 @@
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="C15" s="20">
         <v>3.1006912684591801</v>
@@ -3124,10 +3119,10 @@
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="C16" s="20">
         <v>2.2218094608547299</v>
@@ -3246,10 +3241,10 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>34</v>
       </c>
       <c r="C17" s="13">
         <v>3.27887591293972</v>
@@ -3368,10 +3363,10 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>36</v>
       </c>
       <c r="C18" s="13">
         <v>2.7725484604002899</v>
@@ -3490,10 +3485,10 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="C19" s="16">
         <v>3.4282503744908799</v>
@@ -3612,10 +3607,10 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>40</v>
       </c>
       <c r="C20" s="13">
         <v>3.0908464905808901</v>
@@ -3734,10 +3729,10 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>42</v>
       </c>
       <c r="C21" s="13">
         <v>2.79079888363714</v>
@@ -3856,10 +3851,10 @@
     </row>
     <row r="22" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>44</v>
       </c>
       <c r="C22" s="20">
         <v>2.4915529648448498</v>
@@ -3978,10 +3973,10 @@
     </row>
     <row r="23" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="27">
         <v>3.1839030159509698</v>
@@ -4100,10 +4095,10 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="C24" s="20">
         <v>2.9927084011030201</v>
@@ -4222,10 +4217,10 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="C25" s="20">
         <v>4.7065291608658297</v>
@@ -4344,10 +4339,10 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="C26" s="20">
         <v>1.2327756523111</v>
@@ -4466,10 +4461,10 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="C27" s="20">
         <v>3.4914100243281601</v>
@@ -4588,10 +4583,10 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="C28" s="20">
         <v>3.4422627896609801</v>
@@ -4710,10 +4705,10 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="C29" s="20">
         <v>2.9284245419572299</v>
@@ -4832,10 +4827,10 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="C30" s="20">
         <v>0.98356422481193995</v>
@@ -4954,10 +4949,10 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="C31" s="20">
         <v>0.16352930878085001</v>
@@ -5076,10 +5071,10 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="C32" s="20">
         <v>0.68912382827548002</v>
@@ -5198,10 +5193,10 @@
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="C33" s="20">
         <v>1.2872930663008</v>
@@ -5320,10 +5315,10 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="C34" s="16">
         <v>-0.34403915246110001</v>
@@ -5442,10 +5437,10 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="C35" s="20">
         <v>3.4448372623366201</v>
@@ -5564,10 +5559,10 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="C36" s="20">
         <v>3.2447661256811702</v>
@@ -5686,10 +5681,10 @@
     </row>
     <row r="37" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="C37" s="20">
         <v>3.5277250708865902</v>
@@ -5808,10 +5803,10 @@
     </row>
     <row r="38" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="27">
         <v>2.9940603518297602</v>
@@ -5930,10 +5925,10 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>76</v>
       </c>
       <c r="C39" s="13">
         <v>2.5996774022918299</v>
@@ -6052,10 +6047,10 @@
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="C40" s="20">
         <v>2.4563431716186699</v>
@@ -6174,10 +6169,10 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>80</v>
       </c>
       <c r="C41" s="13">
         <v>2.4885566542348001</v>
@@ -6296,10 +6291,10 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>82</v>
       </c>
       <c r="C42" s="13">
         <v>2.6461954223771</v>
@@ -6418,10 +6413,10 @@
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="C43" s="20">
         <v>1.8551649508138199</v>
@@ -6540,10 +6535,10 @@
     </row>
     <row r="44" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="C44" s="20">
         <v>2.2617025782575699</v>
@@ -6662,10 +6657,10 @@
     </row>
     <row r="45" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="27">
         <v>2.3543665895969101</v>
@@ -6784,10 +6779,10 @@
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="C46" s="20">
         <v>3.2877249471993801</v>
@@ -6906,10 +6901,10 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="C47" s="20">
         <v>2.6948706837371299</v>
@@ -7028,10 +7023,10 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="C48" s="20">
         <v>2.0451114197717102</v>
@@ -7150,10 +7145,10 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="C49" s="20">
         <v>3.6724340451553998</v>
@@ -7272,10 +7267,10 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="C50" s="20">
         <v>4.3646403409233701</v>
@@ -7394,10 +7389,10 @@
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="C51" s="16">
         <v>2.9251935898990902</v>
@@ -7516,10 +7511,10 @@
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="C52" s="20">
         <v>2.9963939891171298</v>
@@ -7638,10 +7633,10 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="C53" s="20">
         <v>2.2524014921648798</v>
@@ -7760,10 +7755,10 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="C54" s="20">
         <v>-1.4485178470293001</v>
@@ -7882,10 +7877,10 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="C55" s="20">
         <v>1.84400980653181</v>
@@ -8004,10 +7999,10 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="C56" s="20">
         <v>3.1663539514580599</v>
@@ -8126,10 +8121,10 @@
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>110</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>111</v>
       </c>
       <c r="C57" s="13">
         <v>2.6128529346330902</v>
@@ -8248,10 +8243,10 @@
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="C58" s="20">
         <v>3.0505191270335601</v>
@@ -8370,10 +8365,10 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="C59" s="20">
         <v>1.5355509099447699</v>
@@ -8492,10 +8487,10 @@
     </row>
     <row r="60" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="C60" s="16">
         <v>2.6027254634753101</v>
@@ -8614,10 +8609,10 @@
     </row>
     <row r="61" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="27">
         <v>2.68196264582348</v>
@@ -8736,10 +8731,10 @@
     </row>
     <row r="62" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="33">
         <v>2.7447069476606898</v>
@@ -8858,10 +8853,10 @@
     </row>
     <row r="63" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C63" s="33">
         <v>1.5793939934362999</v>
@@ -8980,10 +8975,10 @@
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C64" s="37">
         <v>1.8779309926958201</v>
@@ -9102,10 +9097,10 @@
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" s="40">
         <v>1.9622806850622601</v>
@@ -9224,10 +9219,10 @@
     </row>
     <row r="66" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C66" s="43">
         <v>1.7166104839621901</v>
@@ -9346,10 +9341,10 @@
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C67" s="40">
         <v>2.9494252843081101</v>
@@ -9468,10 +9463,10 @@
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C68" s="40">
         <v>2.6069135580581602</v>
@@ -9590,10 +9585,10 @@
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69" s="40">
         <v>2.79515580385632</v>
@@ -9712,10 +9707,10 @@
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C70" s="40">
         <v>2.9487719396262602</v>
@@ -9834,10 +9829,10 @@
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" s="40">
         <v>2.68196264582348</v>
@@ -9956,10 +9951,10 @@
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" s="40">
         <v>3.1386700567656001</v>
@@ -10078,10 +10073,10 @@
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" s="40">
         <v>2.89079377573163</v>
@@ -10200,10 +10195,10 @@
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" s="40">
         <v>2.2668385990013</v>
@@ -10322,10 +10317,10 @@
     </row>
     <row r="75" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" s="43">
         <v>2.3732164817720198</v>
@@ -10444,10 +10439,10 @@
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C76" s="40">
         <v>1.97052142910079</v>
@@ -10566,10 +10561,10 @@
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" s="40">
         <v>1.88055058328276</v>
@@ -10688,10 +10683,10 @@
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C78" s="40">
         <v>0.28907911706758999</v>
@@ -10810,10 +10805,10 @@
     </row>
     <row r="79" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" s="43">
         <v>0.81292711586722</v>
@@ -10932,10 +10927,10 @@
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" s="40">
         <v>2.70383884291443</v>
@@ -11054,10 +11049,10 @@
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C81" s="40">
         <v>1.64188827898339</v>
@@ -11176,10 +11171,10 @@
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C82" s="40">
         <v>2.7573862976283801</v>
@@ -11298,10 +11293,10 @@
     </row>
     <row r="83" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C83" s="43">
         <v>1.5745149659797599</v>
@@ -11420,10 +11415,10 @@
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C84" s="40">
         <v>2.7946047459596501</v>
@@ -11542,10 +11537,10 @@
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="40">
         <v>3.1365831696269901</v>
@@ -11664,10 +11659,10 @@
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C86" s="40">
         <v>2.7488863972137301</v>
@@ -11786,10 +11781,10 @@
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C87" s="40">
         <v>2.11958284323712</v>
@@ -11908,10 +11903,10 @@
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="40">
         <v>2.46539272099742</v>
@@ -12030,10 +12025,10 @@
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C89" s="40">
         <v>1.51776652481452</v>
@@ -12152,10 +12147,10 @@
     </row>
     <row r="90" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C90" s="43">
         <v>0.68591256154891</v>
@@ -12274,10 +12269,10 @@
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C91" s="40">
         <v>2.8718783237353702</v>
@@ -12396,10 +12391,10 @@
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="40">
         <v>2.5391792081267601</v>
@@ -12518,10 +12513,10 @@
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C93" s="40">
         <v>1.84739903181355</v>
@@ -12640,10 +12635,10 @@
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C94" s="40">
         <v>1.6125680503981299</v>
@@ -12762,10 +12757,10 @@
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C95" s="40">
         <v>2.8539626077896698</v>
@@ -12884,10 +12879,10 @@
     </row>
     <row r="96" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C96" s="43">
         <v>2.0962638317743001</v>
@@ -13006,10 +13001,10 @@
     </row>
     <row r="97" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C97" s="40">
         <v>2.8898432609638198</v>
@@ -13128,10 +13123,10 @@
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C98" s="40">
         <v>2.6425258228622601</v>
@@ -13250,10 +13245,10 @@
     </row>
     <row r="99" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C99" s="43">
         <v>3.0774722395306799</v>
@@ -13414,32 +13409,32 @@
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A105" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
@@ -13447,27 +13442,27 @@
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -13477,7 +13472,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab03.xlsx
+++ b/AfDD_2022_Annex_Table_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="167">
   <si>
-    <t>Table 3: Annual population growth rate 1990-2026</t>
+    <t>Table 3: Annual population growth rate, 1990-2026</t>
   </si>
   <si>
     <t>ISO3 Code</t>
@@ -502,6 +502,9 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>Figures up to 2020 are estimates. For 2021 onwards, they are projections.</t>
   </si>
   <si>
@@ -517,88 +520,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -609,7 +534,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,15 +650,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1353,7 +1269,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -13432,18 +13348,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="51" t="s">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A106" s="48" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51"/>
+      <c r="B108" s="51" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
-        <v>162</v>
-      </c>
+    <row r="109" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -13456,25 +13372,27 @@
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab03.xlsx
+++ b/AfDD_2022_Annex_Table_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab03.xlsx
+++ b/AfDD_2022_Annex_Table_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab03.xlsx
+++ b/AfDD_2022_Annex_Table_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab03.xlsx
+++ b/AfDD_2022_Annex_Table_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -502,10 +502,10 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Figures up to 2020 are estimates. For 2021 onwards, they are projections.</t>
+  </si>
+  <si>
     <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Figures up to 2020 are estimates. For 2021 onwards, they are projections.</t>
   </si>
   <si>
     <t>Source: IMF World Economic Outlook Database October 2021.</t>
@@ -12313,118 +12313,118 @@
         <v>148</v>
       </c>
       <c r="C92" s="40">
-        <v>2.5391792081267601</v>
+        <v>2.5391067461029602</v>
       </c>
       <c r="D92" s="40">
-        <v>2.6602107883657999</v>
+        <v>2.6600944005503702</v>
       </c>
       <c r="E92" s="40">
-        <v>2.7428879072194601</v>
+        <v>2.7427372501042502</v>
       </c>
       <c r="F92" s="40">
-        <v>2.7419630112156299</v>
+        <v>2.7418217361062398</v>
       </c>
       <c r="G92" s="40">
-        <v>2.63880652512263</v>
+        <v>2.6387317700995898</v>
       </c>
       <c r="H92" s="40">
-        <v>2.4712187364875202</v>
+        <v>2.47122859195288</v>
       </c>
       <c r="I92" s="40">
-        <v>2.2815016286071899</v>
+        <v>2.2816174832450198</v>
       </c>
       <c r="J92" s="40">
-        <v>2.1198376801113898</v>
+        <v>2.12001958940473</v>
       </c>
       <c r="K92" s="40">
-        <v>2.0065699697733499</v>
+        <v>2.00674634839402</v>
       </c>
       <c r="L92" s="40">
-        <v>1.96012606704863</v>
+        <v>1.9602112845058799</v>
       </c>
       <c r="M92" s="40">
-        <v>1.9563364328532</v>
+        <v>1.9562751415745701</v>
       </c>
       <c r="N92" s="40">
-        <v>1.9674481749652799</v>
+        <v>1.96721903154387</v>
       </c>
       <c r="O92" s="40">
-        <v>1.9557155307824401</v>
+        <v>1.95533812685174</v>
       </c>
       <c r="P92" s="40">
-        <v>1.9044838037198999</v>
+        <v>1.90399647740589</v>
       </c>
       <c r="Q92" s="40">
-        <v>1.80026932043218</v>
+        <v>1.7997048954392401</v>
       </c>
       <c r="R92" s="40">
-        <v>1.66468961123198</v>
+        <v>1.66407211676152</v>
       </c>
       <c r="S92" s="40">
-        <v>1.5215518540555999</v>
+        <v>1.5208921504398201</v>
       </c>
       <c r="T92" s="40">
-        <v>1.4039711334427301</v>
+        <v>1.4032660991200701</v>
       </c>
       <c r="U92" s="40">
-        <v>1.3287081000541701</v>
+        <v>1.3279308090383199</v>
       </c>
       <c r="V92" s="40">
-        <v>1.3096001998731199</v>
+        <v>1.3087400613637701</v>
       </c>
       <c r="W92" s="40">
-        <v>1.32980859254614</v>
+        <v>1.32885875688924</v>
       </c>
       <c r="X92" s="40">
-        <v>1.36087218331347</v>
+        <v>1.3598326312662901</v>
       </c>
       <c r="Y92" s="40">
-        <v>1.3816138470442301</v>
+        <v>1.3805033937020801</v>
       </c>
       <c r="Z92" s="40">
-        <v>1.3936499034530501</v>
+        <v>1.3925043026008299</v>
       </c>
       <c r="AA92" s="40">
-        <v>1.3902375220790699</v>
+        <v>1.38909888651311</v>
       </c>
       <c r="AB92" s="40">
-        <v>1.37577724384832</v>
+        <v>1.37467666432769</v>
       </c>
       <c r="AC92" s="40">
-        <v>1.35976860327176</v>
+        <v>1.35871248512289</v>
       </c>
       <c r="AD92" s="40">
-        <v>1.34776888644181</v>
+        <v>1.34675347774509</v>
       </c>
       <c r="AE92" s="40">
-        <v>1.33665376458285</v>
+        <v>1.3356699859812899</v>
       </c>
       <c r="AF92" s="40">
-        <v>1.3272009813307899</v>
+        <v>1.3262409333930201</v>
       </c>
       <c r="AG92" s="40">
-        <v>1.3175825147864</v>
+        <v>1.31663668876929</v>
       </c>
       <c r="AH92" s="40">
-        <v>1.3078796477216099</v>
+        <v>1.30695173069502</v>
       </c>
       <c r="AI92" s="40">
-        <v>1.2935148790728499</v>
+        <v>1.292597401174</v>
       </c>
       <c r="AJ92" s="40">
-        <v>1.2692264008610501</v>
+        <v>1.2683129959308901</v>
       </c>
       <c r="AK92" s="40">
-        <v>1.2326172744735</v>
+        <v>1.23168783970022</v>
       </c>
       <c r="AL92" s="40">
-        <v>1.1874396211093401</v>
+        <v>1.18648649731139</v>
       </c>
       <c r="AM92" s="40">
-        <v>1.13924432477406</v>
+        <v>1.1382600304350201</v>
       </c>
       <c r="AN92" s="41">
-        <v>1.2243932142309799</v>
+        <v>1.22345365292056</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
@@ -12575,7 +12575,7 @@
         <v>1.53156098295129</v>
       </c>
       <c r="I94" s="40">
-        <v>1.50074947596304</v>
+        <v>1.50074947596306</v>
       </c>
       <c r="J94" s="40">
         <v>1.47197145263231</v>
@@ -12587,10 +12587,10 @@
         <v>1.3833019480831199</v>
       </c>
       <c r="M94" s="40">
-        <v>1.3290567408159999</v>
+        <v>1.3290567408160301</v>
       </c>
       <c r="N94" s="40">
-        <v>1.2648398512732999</v>
+        <v>1.2648398512732799</v>
       </c>
       <c r="O94" s="40">
         <v>1.2126175484853801</v>
@@ -12632,7 +12632,7 @@
         <v>1.1513814394874999</v>
       </c>
       <c r="AB94" s="40">
-        <v>1.1475772079355699</v>
+        <v>1.1475772079355899</v>
       </c>
       <c r="AC94" s="40">
         <v>1.1487670045412099</v>
@@ -12662,10 +12662,10 @@
         <v>0.87100200974726005</v>
       </c>
       <c r="AL94" s="40">
-        <v>0.85383242127679004</v>
+        <v>0.85383242127681003</v>
       </c>
       <c r="AM94" s="40">
-        <v>0.83899473986763995</v>
+        <v>0.83899473986761997</v>
       </c>
       <c r="AN94" s="41">
         <v>0.87876877271775</v>

--- a/AfDD_2022_Annex_Table_Tab03.xlsx
+++ b/AfDD_2022_Annex_Table_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab03.xlsx
+++ b/AfDD_2022_Annex_Table_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="167">
   <si>
-    <t>Table 3: Annual population growth rate, 1990-2026</t>
+    <t>Table 3: Annual population growth rate, 1990-2027</t>
   </si>
   <si>
     <t>ISO3 Code</t>
@@ -34,7 +34,7 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Average annual projected growth, 2021-26</t>
+    <t>Average annual projected growth, 2022-27</t>
   </si>
   <si>
     <t>AGO</t>
@@ -502,13 +502,13 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Figures up to 2020 are estimates. For 2021 onwards, they are projections.</t>
+    <t>Figures up to 2021 are estimates. For 2022 onwards, they are projections.</t>
   </si>
   <si>
     <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
-    <t>Source: IMF World Economic Outlook Database October 2021.</t>
+    <t>Source: IMF World Economic Outlook Database April 2022.</t>
   </si>
   <si>
     <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1269,7 +1269,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN114"/>
+  <dimension ref="A1:AO114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1277,11 +1277,11 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="39" width="5.6328125" style="50" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.1796875" style="50" customWidth="1"/>
+    <col min="3" max="40" width="5.6328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.1796875" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1323,9 +1323,10 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
-      <c r="AN1" s="4"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="4"/>
     </row>
-    <row r="2" spans="1:40" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1443,11 +1444,14 @@
       <c r="AM2" s="9">
         <v>2026</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AN2" s="9">
+        <v>2027</v>
+      </c>
+      <c r="AO2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1565,11 +1569,14 @@
       <c r="AM3" s="13">
         <v>3.1443032892736</v>
       </c>
-      <c r="AN3" s="14">
-        <v>3.1824969078348802</v>
+      <c r="AN3" s="13">
+        <v>3.1256703836672002</v>
+      </c>
+      <c r="AO3" s="14">
+        <v>3.16300258290567</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -1687,11 +1694,14 @@
       <c r="AM4" s="16">
         <v>1.63281122214518</v>
       </c>
-      <c r="AN4" s="17">
-        <v>1.7129023495415101</v>
+      <c r="AN4" s="16">
+        <v>1.5940486805606799</v>
+      </c>
+      <c r="AO4" s="17">
+        <v>1.66535187880132</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
@@ -1809,11 +1819,14 @@
       <c r="AM5" s="20">
         <v>1.09815394421788</v>
       </c>
-      <c r="AN5" s="21">
-        <v>1.08112388509223</v>
+      <c r="AN5" s="20">
+        <v>1.10796942596079</v>
+      </c>
+      <c r="AO5" s="21">
+        <v>1.09029324406245</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
@@ -1931,11 +1944,14 @@
       <c r="AM6" s="20">
         <v>0.84401463838589996</v>
       </c>
-      <c r="AN6" s="21">
-        <v>0.79592983288927999</v>
+      <c r="AN6" s="20">
+        <v>0.86731075793868995</v>
+      </c>
+      <c r="AO6" s="21">
+        <v>0.81535996881036998</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
@@ -2053,11 +2069,14 @@
       <c r="AM7" s="20">
         <v>2.6531933793624298</v>
       </c>
-      <c r="AN7" s="21">
-        <v>2.69096129053061</v>
+      <c r="AN7" s="20">
+        <v>2.6293785556993998</v>
+      </c>
+      <c r="AO7" s="21">
+        <v>2.6741177030402001</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>14</v>
       </c>
@@ -2175,11 +2194,14 @@
       <c r="AM8" s="20">
         <v>2.7909899052417102</v>
       </c>
-      <c r="AN8" s="21">
-        <v>2.8354736059216199</v>
+      <c r="AN8" s="20">
+        <v>2.7653885649016701</v>
+      </c>
+      <c r="AO8" s="21">
+        <v>2.8124750203229598</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
@@ -2297,11 +2319,14 @@
       <c r="AM9" s="20">
         <v>1.69684954221037</v>
       </c>
-      <c r="AN9" s="21">
-        <v>1.74620474264862</v>
+      <c r="AN9" s="20">
+        <v>1.67147891342705</v>
+      </c>
+      <c r="AO9" s="21">
+        <v>1.72082701486356</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
@@ -2419,11 +2444,14 @@
       <c r="AM10" s="20">
         <v>1.0440764297295499</v>
       </c>
-      <c r="AN10" s="21">
-        <v>1.1129510239284299</v>
+      <c r="AN10" s="20">
+        <v>1.0126903629291699</v>
+      </c>
+      <c r="AO10" s="21">
+        <v>1.07761160208137</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -2541,11 +2569,14 @@
       <c r="AM11" s="16">
         <v>2.83705653020245</v>
       </c>
-      <c r="AN11" s="17">
-        <v>2.8718894688817702</v>
+      <c r="AN11" s="16">
+        <v>2.8174490706967199</v>
+      </c>
+      <c r="AO11" s="17">
+        <v>2.8544466654049998</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
@@ -2663,11 +2694,14 @@
       <c r="AM12" s="23">
         <v>1.737402691477</v>
       </c>
-      <c r="AN12" s="24">
-        <v>1.6640738776097801</v>
+      <c r="AN12" s="23">
+        <v>1.7696651372948</v>
+      </c>
+      <c r="AO12" s="24">
+        <v>1.7009503130347701</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
         <v>24</v>
       </c>
@@ -2785,11 +2819,14 @@
       <c r="AM13" s="27">
         <v>2.1695063316040901</v>
       </c>
-      <c r="AN13" s="28">
-        <v>2.1938854318349899</v>
+      <c r="AN13" s="27">
+        <v>2.1567396091809901</v>
+      </c>
+      <c r="AO13" s="28">
+        <v>2.1812711841112198</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>26</v>
       </c>
@@ -2907,11 +2944,14 @@
       <c r="AM14" s="20">
         <v>2.8385144499116302</v>
       </c>
-      <c r="AN14" s="21">
-        <v>2.9233503137397601</v>
+      <c r="AN14" s="20">
+        <v>2.7978222793186398</v>
+      </c>
+      <c r="AO14" s="21">
+        <v>2.8800556038461198</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>28</v>
       </c>
@@ -3029,11 +3069,14 @@
       <c r="AM15" s="20">
         <v>2.4221790877678999</v>
       </c>
-      <c r="AN15" s="21">
-        <v>2.4715949636823402</v>
+      <c r="AN15" s="20">
+        <v>2.3976613358428001</v>
+      </c>
+      <c r="AO15" s="21">
+        <v>2.4462237231327002</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>30</v>
       </c>
@@ -3151,11 +3194,14 @@
       <c r="AM16" s="20">
         <v>2.1623130361643699</v>
       </c>
-      <c r="AN16" s="21">
-        <v>2.08110868331481</v>
+      <c r="AN16" s="20">
+        <v>2.1762859859232999</v>
+      </c>
+      <c r="AO16" s="21">
+        <v>2.12332501002459</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
@@ -3273,11 +3319,14 @@
       <c r="AM17" s="13">
         <v>2.8004073937396301</v>
       </c>
-      <c r="AN17" s="14">
-        <v>2.8761551138840402</v>
+      <c r="AN17" s="13">
+        <v>2.7627377453114401</v>
+      </c>
+      <c r="AO17" s="14">
+        <v>2.8391783270673701</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>34</v>
       </c>
@@ -3395,11 +3444,14 @@
       <c r="AM18" s="13">
         <v>2.4284486827878902</v>
       </c>
-      <c r="AN18" s="14">
-        <v>2.45426145479466</v>
+      <c r="AN18" s="13">
+        <v>2.4152037040284799</v>
+      </c>
+      <c r="AO18" s="14">
+        <v>2.4395706289549501</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
@@ -3517,11 +3569,14 @@
       <c r="AM19" s="16">
         <v>2.9508116087154899</v>
       </c>
-      <c r="AN19" s="17">
-        <v>3.0220992618911899</v>
+      <c r="AN19" s="16">
+        <v>2.9160160016284098</v>
+      </c>
+      <c r="AO19" s="17">
+        <v>2.98550329105176</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
@@ -3639,11 +3694,14 @@
       <c r="AM20" s="13">
         <v>2.8857559243935298</v>
       </c>
-      <c r="AN20" s="14">
-        <v>3.0445601284989401</v>
+      <c r="AN20" s="13">
+        <v>2.8147893093335701</v>
+      </c>
+      <c r="AO20" s="14">
+        <v>2.9622142408841001</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
@@ -3761,11 +3819,14 @@
       <c r="AM21" s="13">
         <v>2.0713341630247002</v>
       </c>
-      <c r="AN21" s="14">
-        <v>2.1873258876358599</v>
+      <c r="AN21" s="13">
+        <v>2.0249684940138599</v>
+      </c>
+      <c r="AO21" s="14">
+        <v>2.1297807687101802</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
         <v>42</v>
       </c>
@@ -3883,11 +3944,14 @@
       <c r="AM22" s="20">
         <v>2.0738815114084201</v>
       </c>
-      <c r="AN22" s="21">
-        <v>1.99785705991809</v>
+      <c r="AN22" s="20">
+        <v>2.11123097012806</v>
+      </c>
+      <c r="AO22" s="21">
+        <v>2.0337363898777401</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
         <v>24</v>
       </c>
@@ -4005,11 +4069,14 @@
       <c r="AM23" s="27">
         <v>2.7853821610080298</v>
       </c>
-      <c r="AN23" s="28">
-        <v>2.8483153180113701</v>
+      <c r="AN23" s="27">
+        <v>2.7538805659833798</v>
+      </c>
+      <c r="AO23" s="28">
+        <v>2.8162007787982701</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>45</v>
       </c>
@@ -4127,11 +4194,14 @@
       <c r="AM24" s="20">
         <v>2.0117056752214002</v>
       </c>
-      <c r="AN24" s="21">
-        <v>2.0724313214492098</v>
+      <c r="AN24" s="20">
+        <v>1.98127822107546</v>
+      </c>
+      <c r="AO24" s="21">
+        <v>2.0419917091026401</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>47</v>
       </c>
@@ -4249,11 +4319,14 @@
       <c r="AM25" s="20">
         <v>1.2067519018841699</v>
       </c>
-      <c r="AN25" s="21">
-        <v>1.2951919825156599</v>
+      <c r="AN25" s="20">
+        <v>1.16345216419882</v>
+      </c>
+      <c r="AO25" s="21">
+        <v>1.25047293742342</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>49</v>
       </c>
@@ -4371,11 +4444,14 @@
       <c r="AM26" s="20">
         <v>1.8425417308593599</v>
       </c>
-      <c r="AN26" s="21">
-        <v>1.7985611699444799</v>
+      <c r="AN26" s="20">
+        <v>1.8482188847088099</v>
+      </c>
+      <c r="AO26" s="21">
+        <v>1.8306567288261899</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>51</v>
       </c>
@@ -4493,11 +4569,14 @@
       <c r="AM27" s="20">
         <v>2.32453707490561</v>
       </c>
-      <c r="AN27" s="21">
-        <v>2.40751228780884</v>
+      <c r="AN27" s="20">
+        <v>2.2830694122761002</v>
+      </c>
+      <c r="AO27" s="21">
+        <v>2.36589659310948</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>53</v>
       </c>
@@ -4615,11 +4694,14 @@
       <c r="AM28" s="20">
         <v>2.1281460734897202</v>
       </c>
-      <c r="AN28" s="21">
-        <v>2.1838664111900599</v>
+      <c r="AN28" s="20">
+        <v>2.0996540767335601</v>
+      </c>
+      <c r="AO28" s="21">
+        <v>2.1565814239031802</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>55</v>
       </c>
@@ -4737,11 +4819,14 @@
       <c r="AM29" s="20">
         <v>2.54392620310922</v>
       </c>
-      <c r="AN29" s="21">
-        <v>2.59448039689982</v>
+      <c r="AN29" s="20">
+        <v>2.5162122226491701</v>
+      </c>
+      <c r="AO29" s="21">
+        <v>2.5695387906065701</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>57</v>
       </c>
@@ -4859,11 +4944,14 @@
       <c r="AM30" s="20">
         <v>6.0314623006299996E-3</v>
       </c>
-      <c r="AN30" s="21">
-        <v>5.1586888238479997E-2</v>
+      <c r="AN30" s="20">
+        <v>-1.7388362016300001E-2</v>
+      </c>
+      <c r="AO30" s="21">
+        <v>2.781808222927E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>59</v>
       </c>
@@ -4981,11 +5069,14 @@
       <c r="AM31" s="20">
         <v>2.2571873715227002</v>
       </c>
-      <c r="AN31" s="21">
-        <v>2.3423805132092501</v>
+      <c r="AN31" s="20">
+        <v>2.2154671592103501</v>
+      </c>
+      <c r="AO31" s="21">
+        <v>2.2974743664455</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>61</v>
       </c>
@@ -5103,11 +5194,14 @@
       <c r="AM32" s="20">
         <v>0.38895448637170998</v>
       </c>
-      <c r="AN32" s="21">
-        <v>0.45385371051737999</v>
+      <c r="AN32" s="20">
+        <v>0.36866814924636998</v>
+      </c>
+      <c r="AO32" s="21">
+        <v>0.42183809428626001</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>63</v>
       </c>
@@ -5225,11 +5319,14 @@
       <c r="AM33" s="20">
         <v>2.9293143059357498</v>
       </c>
-      <c r="AN33" s="21">
-        <v>2.9452850049090702</v>
+      <c r="AN33" s="20">
+        <v>2.9139048339067402</v>
+      </c>
+      <c r="AO33" s="21">
+        <v>2.9384323161062</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>65</v>
       </c>
@@ -5347,11 +5444,14 @@
       <c r="AM34" s="16">
         <v>2.2052530771057102</v>
       </c>
-      <c r="AN34" s="17">
-        <v>2.26980425675516</v>
+      <c r="AN34" s="16">
+        <v>2.1416025323106398</v>
+      </c>
+      <c r="AO34" s="17">
+        <v>2.2814274573924198</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>67</v>
       </c>
@@ -5469,11 +5569,14 @@
       <c r="AM35" s="20">
         <v>2.3336633404775098</v>
       </c>
-      <c r="AN35" s="21">
-        <v>2.3764107429424399</v>
+      <c r="AN35" s="20">
+        <v>2.30884248580954</v>
+      </c>
+      <c r="AO35" s="21">
+        <v>2.3560213627670898</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>69</v>
       </c>
@@ -5591,11 +5694,14 @@
       <c r="AM36" s="20">
         <v>2.8466250360235099</v>
       </c>
-      <c r="AN36" s="21">
-        <v>2.88500592649679</v>
+      <c r="AN36" s="20">
+        <v>2.8265009865443802</v>
+      </c>
+      <c r="AO36" s="21">
+        <v>2.86489193824135</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
         <v>71</v>
       </c>
@@ -5713,11 +5819,14 @@
       <c r="AM37" s="20">
         <v>2.61849459493508</v>
       </c>
-      <c r="AN37" s="21">
-        <v>2.6333260584222802</v>
+      <c r="AN37" s="20">
+        <v>2.6252074334101301</v>
+      </c>
+      <c r="AO37" s="21">
+        <v>2.6026872152602198</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
         <v>24</v>
       </c>
@@ -5835,11 +5944,14 @@
       <c r="AM38" s="27">
         <v>2.4349777056301898</v>
       </c>
-      <c r="AN38" s="28">
-        <v>2.4865605621793998</v>
+      <c r="AN38" s="27">
+        <v>2.40885631458467</v>
+      </c>
+      <c r="AO38" s="28">
+        <v>2.4593864146492499</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>74</v>
       </c>
@@ -5957,11 +6069,14 @@
       <c r="AM39" s="13">
         <v>1.33910499537422</v>
       </c>
-      <c r="AN39" s="14">
-        <v>1.4820073557434399</v>
+      <c r="AN39" s="13">
+        <v>1.2743650117921701</v>
+      </c>
+      <c r="AO39" s="14">
+        <v>1.4080826760616501</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>76</v>
       </c>
@@ -6079,11 +6194,14 @@
       <c r="AM40" s="20">
         <v>1.63411491186143</v>
       </c>
-      <c r="AN40" s="21">
-        <v>1.7227325780304601</v>
+      <c r="AN40" s="20">
+        <v>1.59663477989946</v>
+      </c>
+      <c r="AO40" s="21">
+        <v>1.67789759060195</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>78</v>
       </c>
@@ -6201,11 +6319,14 @@
       <c r="AM41" s="13">
         <v>0.99342090326876997</v>
       </c>
-      <c r="AN41" s="14">
-        <v>1.07286902656039</v>
+      <c r="AN41" s="13">
+        <v>0.95197300676818997</v>
+      </c>
+      <c r="AO41" s="14">
+        <v>1.0269830891718601</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>80</v>
       </c>
@@ -6323,11 +6444,14 @@
       <c r="AM42" s="13">
         <v>2.50276131572442</v>
       </c>
-      <c r="AN42" s="14">
-        <v>2.5787179547699801</v>
+      <c r="AN42" s="13">
+        <v>2.4668767203306601</v>
+      </c>
+      <c r="AO42" s="14">
+        <v>2.5407178485641801</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>82</v>
       </c>
@@ -6445,11 +6569,14 @@
       <c r="AM43" s="20">
         <v>1.0103822396792601</v>
       </c>
-      <c r="AN43" s="21">
-        <v>1.0792312500727901</v>
+      <c r="AN43" s="20">
+        <v>0.97599379595018998</v>
+      </c>
+      <c r="AO43" s="21">
+        <v>1.04523026015266</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
         <v>84</v>
       </c>
@@ -6567,11 +6694,14 @@
       <c r="AM44" s="20">
         <v>0.73539202387545</v>
       </c>
-      <c r="AN44" s="21">
-        <v>0.82700997778145002</v>
+      <c r="AN44" s="20">
+        <v>0.69081157093300005</v>
+      </c>
+      <c r="AO44" s="21">
+        <v>0.77936079879704001</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
         <v>24</v>
       </c>
@@ -6689,11 +6819,14 @@
       <c r="AM45" s="27">
         <v>1.4123148354858499</v>
       </c>
-      <c r="AN45" s="28">
-        <v>1.5063126656754</v>
+      <c r="AN45" s="27">
+        <v>1.37022216428622</v>
+      </c>
+      <c r="AO45" s="28">
+        <v>1.45830303002321</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>87</v>
       </c>
@@ -6811,11 +6944,14 @@
       <c r="AM46" s="20">
         <v>2.5911902454517399</v>
       </c>
-      <c r="AN46" s="21">
-        <v>2.6350118991268698</v>
+      <c r="AN46" s="20">
+        <v>2.5683379687805998</v>
+      </c>
+      <c r="AO46" s="21">
+        <v>2.6126645213086399</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>89</v>
       </c>
@@ -6933,11 +7069,14 @@
       <c r="AM47" s="20">
         <v>2.73649894818324</v>
       </c>
-      <c r="AN47" s="21">
-        <v>2.7764657840957199</v>
+      <c r="AN47" s="20">
+        <v>2.7155041486666098</v>
+      </c>
+      <c r="AO47" s="21">
+        <v>2.75601059946715</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>91</v>
       </c>
@@ -7055,11 +7194,14 @@
       <c r="AM48" s="20">
         <v>0.91611545142603001</v>
       </c>
-      <c r="AN48" s="21">
-        <v>0.96934781103323997</v>
+      <c r="AN48" s="20">
+        <v>0.89253613897990003</v>
+      </c>
+      <c r="AO48" s="21">
+        <v>0.94230396930184002</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>93</v>
       </c>
@@ -7177,11 +7319,14 @@
       <c r="AM49" s="20">
         <v>2.4817979822786098</v>
       </c>
-      <c r="AN49" s="21">
-        <v>2.5142187176820299</v>
+      <c r="AN49" s="20">
+        <v>2.4623853254140098</v>
+      </c>
+      <c r="AO49" s="21">
+        <v>2.4975793001842601</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>95</v>
       </c>
@@ -7299,11 +7444,14 @@
       <c r="AM50" s="20">
         <v>2.7389214298688498</v>
       </c>
-      <c r="AN50" s="21">
-        <v>2.8089609137888401</v>
+      <c r="AN50" s="20">
+        <v>2.7016136372866</v>
+      </c>
+      <c r="AO50" s="21">
+        <v>2.7738280996043798</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>97</v>
       </c>
@@ -7421,11 +7569,14 @@
       <c r="AM51" s="16">
         <v>1.9715850282553</v>
       </c>
-      <c r="AN51" s="17">
-        <v>2.0304504403921402</v>
+      <c r="AN51" s="16">
+        <v>1.9429700209420999</v>
+      </c>
+      <c r="AO51" s="17">
+        <v>2.0009662358365201</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>99</v>
       </c>
@@ -7543,11 +7694,14 @@
       <c r="AM52" s="20">
         <v>2.6174751970294601</v>
       </c>
-      <c r="AN52" s="21">
-        <v>2.6681700856717301</v>
+      <c r="AN52" s="20">
+        <v>2.5877451925981001</v>
+      </c>
+      <c r="AO52" s="21">
+        <v>2.6397494585961101</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>101</v>
       </c>
@@ -7665,11 +7819,14 @@
       <c r="AM53" s="20">
         <v>2.2412190218242398</v>
       </c>
-      <c r="AN53" s="21">
-        <v>2.3064651305239701</v>
+      <c r="AN53" s="20">
+        <v>2.2098415375659402</v>
+      </c>
+      <c r="AO53" s="21">
+        <v>2.2734033739787902</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>103</v>
       </c>
@@ -7787,11 +7944,14 @@
       <c r="AM54" s="20">
         <v>2.3283289360833499</v>
       </c>
-      <c r="AN54" s="21">
-        <v>2.3730577715863799</v>
+      <c r="AN54" s="20">
+        <v>2.3056016187539701</v>
+      </c>
+      <c r="AO54" s="21">
+        <v>2.3519147729905501</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>105</v>
       </c>
@@ -7909,11 +8069,14 @@
       <c r="AM55" s="20">
         <v>2.8998510925827699</v>
       </c>
-      <c r="AN55" s="21">
-        <v>2.9295410607975501</v>
+      <c r="AN55" s="20">
+        <v>2.8818815652329701</v>
+      </c>
+      <c r="AO55" s="21">
+        <v>2.9132246554710099</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>107</v>
       </c>
@@ -8031,11 +8194,14 @@
       <c r="AM56" s="20">
         <v>3.7019814004293399</v>
       </c>
-      <c r="AN56" s="21">
-        <v>3.7458717423058299</v>
+      <c r="AN56" s="20">
+        <v>3.6779560883403399</v>
+      </c>
+      <c r="AO56" s="21">
+        <v>3.7231508047504098</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>109</v>
       </c>
@@ -8153,11 +8319,14 @@
       <c r="AM57" s="13">
         <v>2.4556888901076999</v>
       </c>
-      <c r="AN57" s="14">
-        <v>2.49081076507216</v>
+      <c r="AN57" s="13">
+        <v>2.4381275737451702</v>
+      </c>
+      <c r="AO57" s="14">
+        <v>2.4726455692176001</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>111</v>
       </c>
@@ -8275,11 +8444,14 @@
       <c r="AM58" s="20">
         <v>2.5368576753083398</v>
       </c>
-      <c r="AN58" s="21">
-        <v>2.5944252048332599</v>
+      <c r="AN58" s="20">
+        <v>2.50947184324672</v>
+      </c>
+      <c r="AO58" s="21">
+        <v>2.56439178083621</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>113</v>
       </c>
@@ -8397,11 +8569,14 @@
       <c r="AM59" s="20">
         <v>1.9045917792588101</v>
       </c>
-      <c r="AN59" s="21">
-        <v>1.96556745121095</v>
+      <c r="AN59" s="20">
+        <v>1.8739652215252101</v>
+      </c>
+      <c r="AO59" s="21">
+        <v>1.9347789878953601</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>115</v>
       </c>
@@ -8519,11 +8694,14 @@
       <c r="AM60" s="16">
         <v>2.3212184882300102</v>
       </c>
-      <c r="AN60" s="17">
-        <v>2.35448208530573</v>
+      <c r="AN60" s="16">
+        <v>2.3046148047316102</v>
+      </c>
+      <c r="AO60" s="17">
+        <v>2.33749954562319</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
         <v>24</v>
       </c>
@@ -8641,11 +8819,14 @@
       <c r="AM61" s="27">
         <v>2.53541609402876</v>
       </c>
-      <c r="AN61" s="28">
-        <v>2.5727849527378699</v>
+      <c r="AN61" s="27">
+        <v>2.5161389841558801</v>
+      </c>
+      <c r="AO61" s="28">
+        <v>2.5534356657534301</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
         <v>24</v>
       </c>
@@ -8763,11 +8944,14 @@
       <c r="AM62" s="33">
         <v>2.3200762786511002</v>
       </c>
-      <c r="AN62" s="34">
-        <v>2.3682700582323002</v>
+      <c r="AN62" s="33">
+        <v>2.29647960639827</v>
+      </c>
+      <c r="AO62" s="34">
+        <v>2.3432746749161302</v>
       </c>
     </row>
-    <row r="63" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
         <v>24</v>
       </c>
@@ -8885,11 +9069,14 @@
       <c r="AM63" s="33">
         <v>0.59734424378083995</v>
       </c>
-      <c r="AN63" s="34">
-        <v>0.65000407972388996</v>
+      <c r="AN63" s="33">
+        <v>0.57168716786256002</v>
+      </c>
+      <c r="AO63" s="34">
+        <v>0.62341295935234997</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
         <v>24</v>
       </c>
@@ -9007,11 +9194,14 @@
       <c r="AM64" s="37">
         <v>0.76299253958732005</v>
       </c>
-      <c r="AN64" s="38">
-        <v>0.81684253677674001</v>
+      <c r="AN64" s="37">
+        <v>0.73569825749924</v>
+      </c>
+      <c r="AO64" s="38">
+        <v>0.79013566214387998</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
         <v>24</v>
       </c>
@@ -9129,11 +9319,14 @@
       <c r="AM65" s="40">
         <v>0.71684139892427001</v>
       </c>
-      <c r="AN65" s="41">
-        <v>0.78069004139599996</v>
+      <c r="AN65" s="40">
+        <v>0.68430014670668005</v>
+      </c>
+      <c r="AO65" s="41">
+        <v>0.74933436516510998</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
         <v>24</v>
       </c>
@@ -9251,11 +9444,14 @@
       <c r="AM66" s="43">
         <v>0.91635373473322002</v>
       </c>
-      <c r="AN66" s="44">
-        <v>0.95956219596782</v>
+      <c r="AN66" s="43">
+        <v>0.89552085061757003</v>
+      </c>
+      <c r="AO66" s="44">
+        <v>0.93758594217526003</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
         <v>24</v>
       </c>
@@ -9373,11 +9569,14 @@
       <c r="AM67" s="40">
         <v>2.3060022250679801</v>
       </c>
-      <c r="AN67" s="41">
-        <v>2.36135776832531</v>
+      <c r="AN67" s="40">
+        <v>2.2797546406370599</v>
+      </c>
+      <c r="AO67" s="41">
+        <v>2.33175980637452</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
         <v>24</v>
       </c>
@@ -9495,11 +9694,14 @@
       <c r="AM68" s="40">
         <v>2.26278989212279</v>
       </c>
-      <c r="AN68" s="41">
-        <v>2.30607178115554</v>
+      <c r="AN68" s="40">
+        <v>2.2413566795177502</v>
+      </c>
+      <c r="AO68" s="41">
+        <v>2.2840299382860301</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
         <v>24</v>
       </c>
@@ -9617,11 +9819,14 @@
       <c r="AM69" s="40">
         <v>2.52357730174786</v>
       </c>
-      <c r="AN69" s="41">
-        <v>2.5668185010066198</v>
+      <c r="AN69" s="40">
+        <v>2.5033098168190802</v>
+      </c>
+      <c r="AO69" s="41">
+        <v>2.5419052115769598</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
         <v>24</v>
       </c>
@@ -9739,11 +9944,14 @@
       <c r="AM70" s="40">
         <v>2.8112895869002501</v>
       </c>
-      <c r="AN70" s="41">
-        <v>2.87092941686711</v>
+      <c r="AN70" s="40">
+        <v>2.78163145669033</v>
+      </c>
+      <c r="AO70" s="41">
+        <v>2.8403977187348302</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
         <v>24</v>
       </c>
@@ -9861,11 +10069,14 @@
       <c r="AM71" s="40">
         <v>2.53541609402876</v>
       </c>
-      <c r="AN71" s="41">
-        <v>2.5727849527378699</v>
+      <c r="AN71" s="40">
+        <v>2.5161389841558801</v>
+      </c>
+      <c r="AO71" s="41">
+        <v>2.5534356657534301</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
         <v>24</v>
       </c>
@@ -9983,11 +10194,14 @@
       <c r="AM72" s="40">
         <v>2.3570212504266101</v>
       </c>
-      <c r="AN72" s="41">
-        <v>2.4112733780614901</v>
+      <c r="AN72" s="40">
+        <v>2.3298028706998601</v>
+      </c>
+      <c r="AO72" s="41">
+        <v>2.3825408108484298</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
         <v>24</v>
       </c>
@@ -10105,11 +10319,14 @@
       <c r="AM73" s="40">
         <v>2.5012861964933002</v>
       </c>
-      <c r="AN73" s="41">
-        <v>2.53883882400241</v>
+      <c r="AN73" s="40">
+        <v>2.48190914985731</v>
+      </c>
+      <c r="AO73" s="41">
+        <v>2.51948506556672</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
         <v>24</v>
       </c>
@@ -10227,11 +10444,14 @@
       <c r="AM74" s="40">
         <v>1.18966785310248</v>
       </c>
-      <c r="AN74" s="41">
-        <v>1.29087945258755</v>
+      <c r="AN74" s="40">
+        <v>1.14194677979647</v>
+      </c>
+      <c r="AO74" s="41">
+        <v>1.23877548344857</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
         <v>24</v>
       </c>
@@ -10349,11 +10569,14 @@
       <c r="AM75" s="43">
         <v>2.9333614505715002</v>
       </c>
-      <c r="AN75" s="44">
-        <v>2.97595199585425</v>
+      <c r="AN75" s="43">
+        <v>2.9110061811285202</v>
+      </c>
+      <c r="AO75" s="44">
+        <v>2.95403925667503</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
         <v>24</v>
       </c>
@@ -10471,11 +10694,14 @@
       <c r="AM76" s="40">
         <v>0.82877013960657997</v>
       </c>
-      <c r="AN76" s="41">
-        <v>0.88551854117420004</v>
+      <c r="AN76" s="40">
+        <v>0.80063012502224995</v>
+      </c>
+      <c r="AO76" s="41">
+        <v>0.85722840088608998</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
         <v>24</v>
       </c>
@@ -10593,11 +10819,14 @@
       <c r="AM77" s="40">
         <v>0.68764577219737999</v>
       </c>
-      <c r="AN77" s="41">
-        <v>0.73990280458659996</v>
+      <c r="AN77" s="40">
+        <v>0.66061802907821998</v>
+      </c>
+      <c r="AO77" s="41">
+        <v>0.71410119941322003</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
         <v>24</v>
       </c>
@@ -10715,11 +10944,14 @@
       <c r="AM78" s="40">
         <v>-8.8738990357999994E-2</v>
       </c>
-      <c r="AN78" s="41">
-        <v>-6.7927569766899995E-2</v>
+      <c r="AN78" s="40">
+        <v>-9.5099954084900004E-2</v>
+      </c>
+      <c r="AO78" s="41">
+        <v>-8.1267927867999995E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
         <v>24</v>
       </c>
@@ -10837,11 +11069,14 @@
       <c r="AM79" s="43">
         <v>0.28761645957280002</v>
       </c>
-      <c r="AN79" s="44">
-        <v>0.30468384705850998</v>
+      <c r="AN79" s="43">
+        <v>0.28522080988065002</v>
+      </c>
+      <c r="AO79" s="44">
+        <v>0.29190069012870001</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
         <v>24</v>
       </c>
@@ -10959,11 +11194,14 @@
       <c r="AM80" s="40">
         <v>2.3707241922195998</v>
       </c>
-      <c r="AN80" s="41">
-        <v>2.4204856815606401</v>
+      <c r="AN80" s="40">
+        <v>2.3472699011946698</v>
+      </c>
+      <c r="AO80" s="41">
+        <v>2.3947105275930598</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
         <v>24</v>
       </c>
@@ -11081,11 +11319,14 @@
       <c r="AM81" s="40">
         <v>0.88301304313555995</v>
       </c>
-      <c r="AN81" s="41">
-        <v>0.97630922537347997</v>
+      <c r="AN81" s="40">
+        <v>0.83497620363293001</v>
+      </c>
+      <c r="AO81" s="41">
+        <v>0.93538388172164999</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
         <v>24</v>
       </c>
@@ -11203,11 +11444,14 @@
       <c r="AM82" s="40">
         <v>2.3041170213354398</v>
       </c>
-      <c r="AN82" s="41">
-        <v>2.3518391787361801</v>
+      <c r="AN82" s="40">
+        <v>2.2804650646689901</v>
+      </c>
+      <c r="AO82" s="41">
+        <v>2.32707812383663</v>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
         <v>24</v>
       </c>
@@ -11325,11 +11569,14 @@
       <c r="AM83" s="43">
         <v>0.57389598928241004</v>
       </c>
-      <c r="AN83" s="44">
-        <v>0.623418407525</v>
+      <c r="AN83" s="43">
+        <v>0.55000946523470995</v>
+      </c>
+      <c r="AO83" s="44">
+        <v>0.59791153770208005</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
         <v>24</v>
       </c>
@@ -11447,11 +11694,14 @@
       <c r="AM84" s="40">
         <v>2.6392353590881901</v>
       </c>
-      <c r="AN84" s="41">
-        <v>2.69143110828887</v>
+      <c r="AN84" s="40">
+        <v>2.61226543555351</v>
+      </c>
+      <c r="AO84" s="41">
+        <v>2.6641184578897001</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
         <v>24</v>
       </c>
@@ -11569,11 +11819,14 @@
       <c r="AM85" s="40">
         <v>2.08927618239181</v>
       </c>
-      <c r="AN85" s="41">
-        <v>2.3585021962385002</v>
+      <c r="AN85" s="40">
+        <v>1.9203717405816001</v>
+      </c>
+      <c r="AO85" s="41">
+        <v>2.2575188893972</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
         <v>24</v>
       </c>
@@ -11691,11 +11944,14 @@
       <c r="AM86" s="40">
         <v>2.1867845892603599</v>
       </c>
-      <c r="AN86" s="41">
-        <v>2.23433870999175</v>
+      <c r="AN86" s="40">
+        <v>2.1643711310381599</v>
+      </c>
+      <c r="AO86" s="41">
+        <v>2.2099886762729799</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
         <v>24</v>
       </c>
@@ -11813,11 +12069,14 @@
       <c r="AM87" s="40">
         <v>0.93759236416048997</v>
       </c>
-      <c r="AN87" s="41">
-        <v>0.99578034812071003</v>
+      <c r="AN87" s="40">
+        <v>0.90793965440654001</v>
+      </c>
+      <c r="AO87" s="41">
+        <v>0.96683221069267</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
         <v>24</v>
       </c>
@@ -11935,11 +12194,14 @@
       <c r="AM88" s="40">
         <v>1.1331701320398799</v>
       </c>
-      <c r="AN88" s="41">
-        <v>1.2027141765815501</v>
+      <c r="AN88" s="40">
+        <v>1.1010421296131301</v>
+      </c>
+      <c r="AO88" s="41">
+        <v>1.16637112162767</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
         <v>24</v>
       </c>
@@ -12057,11 +12319,14 @@
       <c r="AM89" s="40">
         <v>0.30634717113922</v>
       </c>
-      <c r="AN89" s="41">
-        <v>0.36075077100446001</v>
+      <c r="AN89" s="40">
+        <v>0.28319375673649</v>
+      </c>
+      <c r="AO89" s="41">
+        <v>0.33093582730651999</v>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
         <v>24</v>
       </c>
@@ -12179,11 +12444,14 @@
       <c r="AM90" s="43">
         <v>0.24039501704739999</v>
       </c>
-      <c r="AN90" s="44">
-        <v>0.26375570406587001</v>
+      <c r="AN90" s="43">
+        <v>0.23321072465072001</v>
+      </c>
+      <c r="AO90" s="44">
+        <v>0.24975693168127999</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
         <v>24</v>
       </c>
@@ -12301,11 +12569,14 @@
       <c r="AM91" s="40">
         <v>2.6744813174521198</v>
       </c>
-      <c r="AN91" s="41">
-        <v>2.7236931101966002</v>
+      <c r="AN91" s="40">
+        <v>2.6491034760986398</v>
+      </c>
+      <c r="AO91" s="41">
+        <v>2.6979799437543099</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
         <v>24</v>
       </c>
@@ -12423,11 +12694,14 @@
       <c r="AM92" s="40">
         <v>1.1382600304350201</v>
       </c>
-      <c r="AN92" s="41">
-        <v>1.22345365292056</v>
+      <c r="AN92" s="40">
+        <v>1.0920181087460401</v>
+      </c>
+      <c r="AO92" s="41">
+        <v>1.18333338707366</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
         <v>24</v>
       </c>
@@ -12545,11 +12819,14 @@
       <c r="AM93" s="40">
         <v>1.4832010678184699</v>
       </c>
-      <c r="AN93" s="41">
-        <v>1.51760037676378</v>
+      <c r="AN93" s="40">
+        <v>1.4666543288034399</v>
+      </c>
+      <c r="AO93" s="41">
+        <v>1.49983716266724</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
         <v>24</v>
       </c>
@@ -12667,11 +12944,14 @@
       <c r="AM94" s="40">
         <v>0.83899473986761997</v>
       </c>
-      <c r="AN94" s="41">
-        <v>0.87876877271775</v>
+      <c r="AN94" s="40">
+        <v>0.82193883401641998</v>
+      </c>
+      <c r="AO94" s="41">
+        <v>0.85642813908611004</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
         <v>24</v>
       </c>
@@ -12789,11 +13069,14 @@
       <c r="AM95" s="40">
         <v>2.5653020929577601</v>
       </c>
-      <c r="AN95" s="41">
-        <v>2.6104656361654901</v>
+      <c r="AN95" s="40">
+        <v>2.54231193729786</v>
+      </c>
+      <c r="AO95" s="41">
+        <v>2.5859760179969902</v>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
         <v>24</v>
       </c>
@@ -12911,11 +13194,14 @@
       <c r="AM96" s="43">
         <v>1.29796900797714</v>
       </c>
-      <c r="AN96" s="44">
-        <v>1.4225110249119799</v>
+      <c r="AN96" s="43">
+        <v>1.23491216105447</v>
+      </c>
+      <c r="AO96" s="44">
+        <v>1.3623983808751099</v>
       </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
         <v>24</v>
       </c>
@@ -13033,11 +13319,14 @@
       <c r="AM97" s="40">
         <v>2.5699065432263302</v>
       </c>
-      <c r="AN97" s="41">
-        <v>2.6131226451774601</v>
+      <c r="AN97" s="40">
+        <v>2.5475788656776901</v>
+      </c>
+      <c r="AO97" s="41">
+        <v>2.590565782184</v>
       </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
         <v>24</v>
       </c>
@@ -13155,11 +13444,14 @@
       <c r="AM98" s="40">
         <v>1.4517113339362899</v>
       </c>
-      <c r="AN98" s="41">
-        <v>1.5633827226064101</v>
+      <c r="AN98" s="40">
+        <v>1.3862694520821299</v>
+      </c>
+      <c r="AO98" s="41">
+        <v>1.5171167785586599</v>
       </c>
     </row>
-    <row r="99" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
         <v>24</v>
       </c>
@@ -13277,11 +13569,14 @@
       <c r="AM99" s="43">
         <v>2.5680902427399599</v>
       </c>
-      <c r="AN99" s="44">
-        <v>2.7061476061260201</v>
+      <c r="AN99" s="43">
+        <v>2.4877130607867</v>
+      </c>
+      <c r="AO99" s="44">
+        <v>2.6508196312007701</v>
       </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A100" s="45"/>
       <c r="B100" s="46"/>
       <c r="C100" s="47"/>
@@ -13322,56 +13617,57 @@
       <c r="AL100" s="47"/>
       <c r="AM100" s="47"/>
       <c r="AN100" s="47"/>
+      <c r="AO100" s="47"/>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A105" s="48" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A106" s="48" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="51" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B109" s="51"/>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">

--- a/AfDD_2022_Annex_Table_Tab03.xlsx
+++ b/AfDD_2022_Annex_Table_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab03.xlsx
+++ b/AfDD_2022_Annex_Table_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     <t>Source: IMF World Economic Outlook Database April 2022.</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -8962,10 +8962,10 @@
         <v>1.5793939934362999</v>
       </c>
       <c r="D63" s="33">
-        <v>1.49329737858901</v>
+        <v>1.49329737858899</v>
       </c>
       <c r="E63" s="33">
-        <v>1.41670162532142</v>
+        <v>1.41670162532144</v>
       </c>
       <c r="F63" s="33">
         <v>1.35249082717699</v>
@@ -11459,7 +11459,7 @@
         <v>139</v>
       </c>
       <c r="C83" s="43">
-        <v>1.5745149659797599</v>
+        <v>1.57451496597973</v>
       </c>
       <c r="D83" s="43">
         <v>1.4944354485195299</v>
@@ -12272,19 +12272,19 @@
         <v>0.71402970167900004</v>
       </c>
       <c r="X89" s="40">
-        <v>0.73433419872104</v>
+        <v>0.73433419872100003</v>
       </c>
       <c r="Y89" s="40">
-        <v>0.74914445378497996</v>
+        <v>0.74914445378502004</v>
       </c>
       <c r="Z89" s="40">
         <v>0.75402055348751995</v>
       </c>
       <c r="AA89" s="40">
-        <v>0.74523883644899003</v>
+        <v>0.74523883644897004</v>
       </c>
       <c r="AB89" s="40">
-        <v>0.72527795082825997</v>
+        <v>0.72527795082827995</v>
       </c>
       <c r="AC89" s="40">
         <v>0.70365740266240995</v>
@@ -13686,7 +13686,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId6"/>
